--- a/VersionRecords/Version 3.1.3.1/版本Bug和特性计划及评审表v3.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 3.1.3.1/版本Bug和特性计划及评审表v3.1.3.1_马丁组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.3.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -133,18 +138,24 @@
   <si>
     <t>修正负责人</t>
   </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -185,111 +196,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -298,52 +204,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -357,8 +217,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,198 +238,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -652,265 +331,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -958,7 +395,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,7 +404,7 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,64 +447,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="22"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="48"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="53"/>
-    <cellStyle name="常规 3" xfId="54"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1079,7 +477,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1399,15 +797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="46.625" style="11" customWidth="1"/>
@@ -1430,7 +827,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27.75" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1521,10 +918,18 @@
       <c r="K2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42517</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27" t="s">
@@ -1533,7 +938,7 @@
       <c r="S2" s="30"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1565,10 +970,18 @@
       <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="26"/>
+      <c r="L3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42518</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27" t="s">
@@ -1577,7 +990,7 @@
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="18" customHeight="1" spans="1:20">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1609,10 +1022,18 @@
       <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42519</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27" t="s">
@@ -1621,7 +1042,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -1643,7 +1064,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1665,7 +1086,7 @@
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1687,7 +1108,7 @@
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1709,7 +1130,7 @@
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1731,7 +1152,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -1753,7 +1174,7 @@
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -1775,7 +1196,7 @@
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -1797,7 +1218,7 @@
       <c r="S12" s="30"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -1819,7 +1240,7 @@
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -1841,7 +1262,7 @@
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -1863,7 +1284,7 @@
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -1885,7 +1306,7 @@
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -1907,7 +1328,7 @@
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1929,7 +1350,7 @@
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1951,7 +1372,7 @@
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="16"/>
@@ -1973,7 +1394,7 @@
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -1995,7 +1416,7 @@
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2017,7 +1438,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="19"/>
       <c r="C23" s="16"/>
@@ -2039,7 +1460,7 @@
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
       <c r="C24" s="16"/>
@@ -2061,7 +1482,7 @@
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="19"/>
       <c r="C25" s="16"/>
@@ -2083,7 +1504,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="19"/>
       <c r="C26" s="16"/>
@@ -2105,7 +1526,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="19"/>
       <c r="C27" s="16"/>
@@ -2127,7 +1548,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="19"/>
       <c r="C28" s="16"/>
@@ -2149,7 +1570,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="19"/>
       <c r="C29" s="16"/>
@@ -2171,7 +1592,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="19"/>
       <c r="C30" s="16"/>
@@ -2193,7 +1614,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="19"/>
       <c r="C31" s="16"/>
@@ -2215,7 +1636,7 @@
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="19"/>
       <c r="C32" s="16"/>
@@ -2237,7 +1658,7 @@
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="19"/>
       <c r="C33" s="16"/>
@@ -2259,7 +1680,7 @@
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="19"/>
       <c r="C34" s="16"/>
@@ -2281,7 +1702,7 @@
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="19"/>
       <c r="C35" s="16"/>
@@ -2303,7 +1724,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="19"/>
       <c r="C36" s="16"/>
@@ -2325,7 +1746,7 @@
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="19"/>
       <c r="C37" s="16"/>
@@ -2347,7 +1768,7 @@
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
@@ -2369,7 +1790,7 @@
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="19"/>
       <c r="C39" s="16"/>
@@ -2391,7 +1812,7 @@
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="19"/>
       <c r="C40" s="16"/>
@@ -2413,7 +1834,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="19"/>
       <c r="C41" s="16"/>
@@ -2435,7 +1856,7 @@
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="19"/>
       <c r="C42" s="16"/>
@@ -2457,7 +1878,7 @@
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="19"/>
       <c r="C43" s="16"/>
@@ -2479,7 +1900,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="19"/>
       <c r="C44" s="16"/>
@@ -2501,7 +1922,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
     </row>
-    <row r="45" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="19"/>
       <c r="C45" s="16"/>
@@ -2523,7 +1944,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="19"/>
       <c r="C46" s="16"/>
@@ -2545,7 +1966,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="19"/>
       <c r="C47" s="16"/>
@@ -2567,7 +1988,7 @@
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="19"/>
       <c r="C48" s="16"/>
@@ -2589,7 +2010,7 @@
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="19"/>
       <c r="C49" s="16"/>
@@ -2611,7 +2032,7 @@
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="19"/>
       <c r="C50" s="16"/>
@@ -2633,7 +2054,7 @@
       <c r="S50" s="30"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="19"/>
       <c r="C51" s="16"/>
@@ -2655,7 +2076,7 @@
       <c r="S51" s="30"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="19"/>
       <c r="C52" s="16"/>
@@ -2677,7 +2098,7 @@
       <c r="S52" s="30"/>
       <c r="T52" s="31"/>
     </row>
-    <row r="53" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="19"/>
       <c r="C53" s="16"/>
@@ -2699,7 +2120,7 @@
       <c r="S53" s="30"/>
       <c r="T53" s="31"/>
     </row>
-    <row r="54" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="19"/>
       <c r="C54" s="16"/>
@@ -2721,7 +2142,7 @@
       <c r="S54" s="30"/>
       <c r="T54" s="31"/>
     </row>
-    <row r="55" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="19"/>
       <c r="C55" s="16"/>
@@ -2743,7 +2164,7 @@
       <c r="S55" s="30"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="19"/>
       <c r="C56" s="16"/>
@@ -2765,7 +2186,7 @@
       <c r="S56" s="30"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
       <c r="B57" s="19"/>
       <c r="C57" s="16"/>
@@ -2787,7 +2208,7 @@
       <c r="S57" s="30"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
       <c r="B58" s="19"/>
       <c r="C58" s="16"/>
@@ -2809,7 +2230,7 @@
       <c r="S58" s="30"/>
       <c r="T58" s="31"/>
     </row>
-    <row r="59" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
       <c r="B59" s="19"/>
       <c r="C59" s="16"/>
@@ -2831,7 +2252,7 @@
       <c r="S59" s="30"/>
       <c r="T59" s="31"/>
     </row>
-    <row r="60" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
       <c r="B60" s="19"/>
       <c r="C60" s="16"/>
@@ -2853,7 +2274,7 @@
       <c r="S60" s="30"/>
       <c r="T60" s="31"/>
     </row>
-    <row r="61" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="20"/>
@@ -2875,7 +2296,7 @@
       <c r="S61" s="21"/>
       <c r="T61" s="31"/>
     </row>
-    <row r="62" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="20"/>
@@ -2897,7 +2318,7 @@
       <c r="S62" s="21"/>
       <c r="T62" s="31"/>
     </row>
-    <row r="63" ht="16.5" spans="1:19">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="23"/>
@@ -2918,7 +2339,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" ht="16.5" spans="1:19">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="23"/>
@@ -2939,7 +2360,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" ht="16.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="23"/>
@@ -2960,7 +2381,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="24"/>
     </row>
-    <row r="66" ht="16.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="23"/>
@@ -2981,7 +2402,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" ht="16.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="23"/>
@@ -3002,7 +2423,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" ht="16.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="23"/>
@@ -3023,7 +2444,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="24"/>
     </row>
-    <row r="69" ht="16.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="23"/>
@@ -3044,7 +2465,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="24"/>
     </row>
-    <row r="70" ht="16.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="23"/>
@@ -3065,7 +2486,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="24"/>
     </row>
-    <row r="71" ht="16.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="23"/>
@@ -3086,7 +2507,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="24"/>
     </row>
-    <row r="72" ht="16.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="23"/>
@@ -3107,7 +2528,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" ht="16.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="23"/>
@@ -3128,7 +2549,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" ht="16.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="23"/>
@@ -3149,7 +2570,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="24"/>
     </row>
-    <row r="75" ht="16.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="23"/>
@@ -3170,7 +2591,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="24"/>
     </row>
-    <row r="76" ht="16.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="23"/>
@@ -3191,7 +2612,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="24"/>
     </row>
-    <row r="77" ht="16.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="24"/>
       <c r="C77" s="23"/>
@@ -3212,7 +2633,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" ht="16.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="24"/>
       <c r="C78" s="23"/>
@@ -3233,7 +2654,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="24"/>
     </row>
-    <row r="79" ht="16.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="23"/>
@@ -3254,7 +2675,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="24"/>
     </row>
-    <row r="80" ht="16.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="23"/>
@@ -3275,7 +2696,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="24"/>
     </row>
-    <row r="81" ht="16.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="23"/>
@@ -3296,7 +2717,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="24"/>
     </row>
-    <row r="82" ht="16.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="23"/>
@@ -3317,7 +2738,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="24"/>
     </row>
-    <row r="83" ht="16.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
       <c r="B83" s="24"/>
       <c r="C83" s="23"/>
@@ -3338,7 +2759,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" ht="16.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="23"/>
@@ -3359,7 +2780,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" ht="16.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="23"/>
@@ -3380,7 +2801,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="24"/>
     </row>
-    <row r="86" ht="16.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="23"/>
@@ -3401,7 +2822,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="24"/>
     </row>
-    <row r="87" ht="16.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
       <c r="B87" s="24"/>
       <c r="C87" s="23"/>
@@ -3422,7 +2843,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="24"/>
     </row>
-    <row r="88" ht="16.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
       <c r="B88" s="24"/>
       <c r="C88" s="23"/>
@@ -3443,7 +2864,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="24"/>
     </row>
-    <row r="89" ht="16.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="23"/>
       <c r="B89" s="24"/>
       <c r="C89" s="23"/>
@@ -3464,7 +2885,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="24"/>
     </row>
-    <row r="90" ht="16.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
       <c r="B90" s="24"/>
       <c r="C90" s="23"/>
@@ -3485,7 +2906,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" ht="16.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
       <c r="B91" s="24"/>
       <c r="C91" s="23"/>
@@ -3506,7 +2927,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" ht="16.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="23"/>
@@ -3527,7 +2948,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="24"/>
     </row>
-    <row r="93" ht="16.5" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
       <c r="B93" s="24"/>
       <c r="C93" s="23"/>
@@ -3548,7 +2969,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="24"/>
     </row>
-    <row r="94" ht="16.5" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
       <c r="B94" s="24"/>
       <c r="C94" s="23"/>
@@ -3569,7 +2990,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="24"/>
     </row>
-    <row r="95" ht="16.5" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="23"/>
@@ -3590,7 +3011,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="24"/>
     </row>
-    <row r="96" ht="16.5" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="23"/>
@@ -3611,7 +3032,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="24"/>
     </row>
-    <row r="97" ht="16.5" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="23"/>
@@ -3632,7 +3053,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="24"/>
     </row>
-    <row r="98" ht="16.5" spans="1:19">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="23"/>
@@ -3653,7 +3074,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="24"/>
     </row>
-    <row r="99" ht="16.5" spans="1:19">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="23"/>
@@ -3674,7 +3095,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="24"/>
     </row>
-    <row r="100" ht="16.5" spans="1:19">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
       <c r="B100" s="24"/>
       <c r="C100" s="23"/>
@@ -3695,7 +3116,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="24"/>
     </row>
-    <row r="101" ht="16.5" spans="1:19">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
       <c r="B101" s="24"/>
       <c r="C101" s="23"/>
@@ -3716,7 +3137,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="24"/>
     </row>
-    <row r="102" ht="16.5" spans="1:19">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="23"/>
@@ -3737,7 +3158,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="24"/>
     </row>
-    <row r="103" ht="16.5" spans="1:19">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="23"/>
@@ -3758,7 +3179,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="24"/>
     </row>
-    <row r="104" ht="16.5" spans="1:19">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="23"/>
@@ -3779,7 +3200,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="24"/>
     </row>
-    <row r="105" ht="16.5" spans="1:19">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="23"/>
@@ -3800,7 +3221,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="24"/>
     </row>
-    <row r="106" ht="16.5" spans="1:19">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="23"/>
@@ -3821,7 +3242,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="24"/>
     </row>
-    <row r="107" ht="16.5" spans="1:19">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
       <c r="B107" s="24"/>
       <c r="C107" s="23"/>
@@ -3842,7 +3263,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="24"/>
     </row>
-    <row r="108" ht="16.5" spans="1:19">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
       <c r="B108" s="24"/>
       <c r="C108" s="23"/>
@@ -3863,7 +3284,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="24"/>
     </row>
-    <row r="109" ht="16.5" spans="1:19">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="23"/>
@@ -3884,7 +3305,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="24"/>
     </row>
-    <row r="110" ht="16.5" spans="1:19">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="23"/>
@@ -3905,7 +3326,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="24"/>
     </row>
-    <row r="111" ht="16.5" spans="1:19">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
       <c r="B111" s="24"/>
       <c r="C111" s="23"/>
@@ -3926,7 +3347,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="24"/>
     </row>
-    <row r="112" ht="16.5" spans="1:19">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="23"/>
       <c r="B112" s="24"/>
       <c r="C112" s="23"/>
@@ -3947,7 +3368,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="24"/>
     </row>
-    <row r="113" ht="16.5" spans="1:19">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
       <c r="B113" s="24"/>
       <c r="C113" s="23"/>
@@ -3968,7 +3389,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="24"/>
     </row>
-    <row r="114" ht="16.5" spans="1:19">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
       <c r="B114" s="24"/>
       <c r="C114" s="23"/>
@@ -3989,7 +3410,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="24"/>
     </row>
-    <row r="115" ht="16.5" spans="1:19">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
       <c r="B115" s="24"/>
       <c r="C115" s="23"/>
@@ -4010,7 +3431,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="24"/>
     </row>
-    <row r="116" ht="16.5" spans="1:19">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
       <c r="B116" s="24"/>
       <c r="C116" s="23"/>
@@ -4031,7 +3452,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="24"/>
     </row>
-    <row r="117" ht="16.5" spans="1:19">
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
       <c r="B117" s="24"/>
       <c r="C117" s="23"/>
@@ -4052,7 +3473,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="24"/>
     </row>
-    <row r="118" ht="16.5" spans="1:19">
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
       <c r="B118" s="24"/>
       <c r="C118" s="23"/>
@@ -4073,7 +3494,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="24"/>
     </row>
-    <row r="119" ht="16.5" spans="1:19">
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="C119" s="23"/>
@@ -4094,7 +3515,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="24"/>
     </row>
-    <row r="120" ht="16.5" spans="1:19">
+    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="C120" s="23"/>
@@ -4115,7 +3536,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="24"/>
     </row>
-    <row r="121" ht="16.5" spans="1:19">
+    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="23"/>
       <c r="B121" s="24"/>
       <c r="C121" s="23"/>
@@ -4136,7 +3557,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="24"/>
     </row>
-    <row r="122" ht="16.5" spans="1:19">
+    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
       <c r="B122" s="24"/>
       <c r="C122" s="23"/>
@@ -4157,7 +3578,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="24"/>
     </row>
-    <row r="123" ht="16.5" spans="1:19">
+    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
       <c r="B123" s="24"/>
       <c r="C123" s="23"/>
@@ -4178,7 +3599,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="24"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
       <c r="C124" s="23"/>
@@ -4199,7 +3620,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="24"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="C125" s="23"/>
@@ -4220,7 +3641,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="24"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="C126" s="23"/>
@@ -4241,7 +3662,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="24"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="C127" s="23"/>
@@ -4262,7 +3683,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="24"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="C128" s="23"/>
@@ -4283,7 +3704,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="24"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="C129" s="23"/>
@@ -4304,7 +3725,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="24"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="C130" s="23"/>
@@ -4325,7 +3746,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="24"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
       <c r="B131" s="24"/>
       <c r="C131" s="23"/>
@@ -4346,7 +3767,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="24"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="23"/>
@@ -4367,7 +3788,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="24"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
       <c r="B133" s="24"/>
       <c r="C133" s="23"/>
@@ -4388,7 +3809,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="24"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
       <c r="B134" s="24"/>
       <c r="C134" s="23"/>
@@ -4409,7 +3830,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="24"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="23"/>
@@ -4430,7 +3851,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="24"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="23"/>
@@ -4451,7 +3872,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="24"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="C137" s="23"/>
@@ -4472,7 +3893,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="24"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="C138" s="23"/>
@@ -4493,7 +3914,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="24"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="C139" s="23"/>
@@ -4514,7 +3935,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="24"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="23"/>
@@ -4535,7 +3956,7 @@
       <c r="R140" s="23"/>
       <c r="S140" s="24"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
       <c r="B141" s="24"/>
       <c r="C141" s="23"/>
@@ -4556,7 +3977,7 @@
       <c r="R141" s="23"/>
       <c r="S141" s="24"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
       <c r="B142" s="24"/>
       <c r="C142" s="23"/>
@@ -4577,7 +3998,7 @@
       <c r="R142" s="23"/>
       <c r="S142" s="24"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
       <c r="B143" s="24"/>
       <c r="C143" s="23"/>
@@ -4598,7 +4019,7 @@
       <c r="R143" s="23"/>
       <c r="S143" s="24"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="23"/>
       <c r="B144" s="24"/>
       <c r="C144" s="23"/>
@@ -4619,7 +4040,7 @@
       <c r="R144" s="23"/>
       <c r="S144" s="24"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="23"/>
       <c r="B145" s="24"/>
       <c r="C145" s="23"/>
@@ -4640,7 +4061,7 @@
       <c r="R145" s="23"/>
       <c r="S145" s="24"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
       <c r="B146" s="24"/>
       <c r="C146" s="23"/>
@@ -4661,7 +4082,7 @@
       <c r="R146" s="23"/>
       <c r="S146" s="24"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
       <c r="B147" s="24"/>
       <c r="C147" s="23"/>
@@ -4682,7 +4103,7 @@
       <c r="R147" s="23"/>
       <c r="S147" s="24"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
       <c r="B148" s="24"/>
       <c r="C148" s="23"/>
@@ -4703,7 +4124,7 @@
       <c r="R148" s="23"/>
       <c r="S148" s="24"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
       <c r="B149" s="24"/>
       <c r="C149" s="23"/>
@@ -4724,7 +4145,7 @@
       <c r="R149" s="23"/>
       <c r="S149" s="24"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
       <c r="B150" s="24"/>
       <c r="C150" s="23"/>
@@ -4745,7 +4166,7 @@
       <c r="R150" s="23"/>
       <c r="S150" s="24"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
       <c r="B151" s="24"/>
       <c r="C151" s="23"/>
@@ -4766,7 +4187,7 @@
       <c r="R151" s="23"/>
       <c r="S151" s="24"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
       <c r="B152" s="24"/>
       <c r="C152" s="23"/>
@@ -4787,7 +4208,7 @@
       <c r="R152" s="23"/>
       <c r="S152" s="24"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="23"/>
       <c r="B153" s="24"/>
       <c r="C153" s="23"/>
@@ -4808,7 +4229,7 @@
       <c r="R153" s="23"/>
       <c r="S153" s="24"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
       <c r="B154" s="24"/>
       <c r="C154" s="23"/>
@@ -4829,7 +4250,7 @@
       <c r="R154" s="23"/>
       <c r="S154" s="24"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
       <c r="B155" s="24"/>
       <c r="C155" s="23"/>
@@ -4850,7 +4271,7 @@
       <c r="R155" s="23"/>
       <c r="S155" s="24"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
       <c r="B156" s="24"/>
       <c r="C156" s="23"/>
@@ -4871,7 +4292,7 @@
       <c r="R156" s="23"/>
       <c r="S156" s="24"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
       <c r="B157" s="24"/>
       <c r="C157" s="23"/>
@@ -4892,7 +4313,7 @@
       <c r="R157" s="23"/>
       <c r="S157" s="24"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
       <c r="B158" s="24"/>
       <c r="C158" s="23"/>
@@ -4913,7 +4334,7 @@
       <c r="R158" s="23"/>
       <c r="S158" s="24"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="23"/>
       <c r="B159" s="24"/>
       <c r="C159" s="23"/>
@@ -4934,7 +4355,7 @@
       <c r="R159" s="23"/>
       <c r="S159" s="24"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="23"/>
       <c r="B160" s="24"/>
       <c r="C160" s="23"/>
@@ -4955,7 +4376,7 @@
       <c r="R160" s="23"/>
       <c r="S160" s="24"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
       <c r="B161" s="24"/>
       <c r="C161" s="23"/>
@@ -4976,7 +4397,7 @@
       <c r="R161" s="23"/>
       <c r="S161" s="24"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
       <c r="B162" s="24"/>
       <c r="C162" s="23"/>
@@ -4997,7 +4418,7 @@
       <c r="R162" s="23"/>
       <c r="S162" s="24"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
       <c r="B163" s="24"/>
       <c r="C163" s="23"/>
@@ -5018,7 +4439,7 @@
       <c r="R163" s="23"/>
       <c r="S163" s="24"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
       <c r="B164" s="24"/>
       <c r="C164" s="23"/>
@@ -5039,7 +4460,7 @@
       <c r="R164" s="23"/>
       <c r="S164" s="24"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
       <c r="B165" s="24"/>
       <c r="C165" s="23"/>
@@ -5060,7 +4481,7 @@
       <c r="R165" s="23"/>
       <c r="S165" s="24"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
       <c r="B166" s="24"/>
       <c r="C166" s="23"/>
@@ -5081,7 +4502,7 @@
       <c r="R166" s="23"/>
       <c r="S166" s="24"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
       <c r="B167" s="24"/>
       <c r="C167" s="23"/>
@@ -5102,7 +4523,7 @@
       <c r="R167" s="23"/>
       <c r="S167" s="24"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
       <c r="B168" s="24"/>
       <c r="C168" s="23"/>
@@ -5123,7 +4544,7 @@
       <c r="R168" s="23"/>
       <c r="S168" s="24"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
       <c r="B169" s="24"/>
       <c r="C169" s="23"/>
@@ -5144,7 +4565,7 @@
       <c r="R169" s="23"/>
       <c r="S169" s="24"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
       <c r="B170" s="24"/>
       <c r="C170" s="23"/>
@@ -5165,7 +4586,7 @@
       <c r="R170" s="23"/>
       <c r="S170" s="24"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
       <c r="B171" s="24"/>
       <c r="C171" s="23"/>
@@ -5186,7 +4607,7 @@
       <c r="R171" s="23"/>
       <c r="S171" s="24"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
       <c r="B172" s="24"/>
       <c r="C172" s="23"/>
@@ -5207,7 +4628,7 @@
       <c r="R172" s="23"/>
       <c r="S172" s="24"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="23"/>
       <c r="B173" s="24"/>
       <c r="C173" s="23"/>
@@ -5228,7 +4649,7 @@
       <c r="R173" s="23"/>
       <c r="S173" s="24"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="23"/>
       <c r="B174" s="24"/>
       <c r="C174" s="23"/>
@@ -5249,7 +4670,7 @@
       <c r="R174" s="23"/>
       <c r="S174" s="24"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="23"/>
       <c r="B175" s="24"/>
       <c r="C175" s="23"/>
@@ -5270,7 +4691,7 @@
       <c r="R175" s="23"/>
       <c r="S175" s="24"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="23"/>
       <c r="B176" s="24"/>
       <c r="C176" s="23"/>
@@ -5291,7 +4712,7 @@
       <c r="R176" s="23"/>
       <c r="S176" s="24"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="23"/>
       <c r="B177" s="24"/>
       <c r="C177" s="23"/>
@@ -5312,7 +4733,7 @@
       <c r="R177" s="23"/>
       <c r="S177" s="24"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="23"/>
       <c r="B178" s="24"/>
       <c r="C178" s="23"/>
@@ -5333,7 +4754,7 @@
       <c r="R178" s="23"/>
       <c r="S178" s="24"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="23"/>
       <c r="B179" s="24"/>
       <c r="C179" s="23"/>
@@ -5354,7 +4775,7 @@
       <c r="R179" s="23"/>
       <c r="S179" s="24"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="23"/>
       <c r="B180" s="24"/>
       <c r="C180" s="23"/>
@@ -5375,7 +4796,7 @@
       <c r="R180" s="23"/>
       <c r="S180" s="24"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="23"/>
       <c r="B181" s="24"/>
       <c r="C181" s="23"/>
@@ -5396,7 +4817,7 @@
       <c r="R181" s="23"/>
       <c r="S181" s="24"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="23"/>
       <c r="B182" s="24"/>
       <c r="C182" s="23"/>
@@ -5417,7 +4838,7 @@
       <c r="R182" s="23"/>
       <c r="S182" s="24"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="23"/>
       <c r="B183" s="24"/>
       <c r="C183" s="23"/>
@@ -5438,7 +4859,7 @@
       <c r="R183" s="23"/>
       <c r="S183" s="24"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="23"/>
       <c r="B184" s="24"/>
       <c r="C184" s="23"/>
@@ -5456,7 +4877,7 @@
       <c r="O184" s="24"/>
       <c r="S184" s="24"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="23"/>
       <c r="B185" s="24"/>
       <c r="C185" s="23"/>
@@ -5474,7 +4895,7 @@
       <c r="O185" s="24"/>
       <c r="S185" s="24"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="23"/>
       <c r="B186" s="24"/>
       <c r="C186" s="23"/>
@@ -5492,7 +4913,7 @@
       <c r="O186" s="24"/>
       <c r="S186" s="24"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="23"/>
       <c r="B187" s="24"/>
       <c r="C187" s="23"/>
@@ -5510,7 +4931,7 @@
       <c r="O187" s="24"/>
       <c r="S187" s="24"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="23"/>
       <c r="B188" s="24"/>
       <c r="C188" s="23"/>
@@ -5528,7 +4949,7 @@
       <c r="O188" s="24"/>
       <c r="S188" s="24"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="23"/>
       <c r="B189" s="24"/>
       <c r="C189" s="23"/>
@@ -5546,7 +4967,7 @@
       <c r="O189" s="24"/>
       <c r="S189" s="24"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="23"/>
       <c r="B190" s="24"/>
       <c r="C190" s="23"/>
@@ -5564,7 +4985,7 @@
       <c r="O190" s="24"/>
       <c r="S190" s="24"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="23"/>
       <c r="B191" s="24"/>
       <c r="C191" s="23"/>
@@ -5582,7 +5003,7 @@
       <c r="O191" s="24"/>
       <c r="S191" s="24"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="23"/>
       <c r="B192" s="24"/>
       <c r="C192" s="23"/>
@@ -5600,7 +5021,7 @@
       <c r="O192" s="24"/>
       <c r="S192" s="24"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="23"/>
       <c r="B193" s="24"/>
       <c r="C193" s="23"/>
@@ -5618,7 +5039,7 @@
       <c r="O193" s="24"/>
       <c r="S193" s="24"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="23"/>
       <c r="B194" s="24"/>
       <c r="C194" s="23"/>
@@ -5636,7 +5057,7 @@
       <c r="O194" s="24"/>
       <c r="S194" s="24"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="23"/>
       <c r="B195" s="24"/>
       <c r="C195" s="23"/>
@@ -5654,7 +5075,7 @@
       <c r="O195" s="24"/>
       <c r="S195" s="24"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="23"/>
       <c r="B196" s="24"/>
       <c r="C196" s="23"/>
@@ -5672,7 +5093,7 @@
       <c r="O196" s="24"/>
       <c r="S196" s="24"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="23"/>
       <c r="B197" s="24"/>
       <c r="C197" s="23"/>
@@ -5690,7 +5111,7 @@
       <c r="O197" s="24"/>
       <c r="S197" s="24"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="23"/>
       <c r="B198" s="24"/>
       <c r="C198" s="23"/>
@@ -5708,7 +5129,7 @@
       <c r="O198" s="24"/>
       <c r="S198" s="24"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="23"/>
       <c r="B199" s="24"/>
       <c r="C199" s="23"/>
@@ -5726,7 +5147,7 @@
       <c r="O199" s="24"/>
       <c r="S199" s="24"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="23"/>
       <c r="B200" s="24"/>
       <c r="C200" s="23"/>
@@ -5744,7 +5165,7 @@
       <c r="O200" s="24"/>
       <c r="S200" s="24"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="23"/>
       <c r="B201" s="24"/>
       <c r="C201" s="23"/>
@@ -5762,7 +5183,7 @@
       <c r="O201" s="24"/>
       <c r="S201" s="24"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="23"/>
       <c r="B202" s="24"/>
       <c r="C202" s="23"/>
@@ -5780,7 +5201,7 @@
       <c r="O202" s="24"/>
       <c r="S202" s="24"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="23"/>
       <c r="B203" s="24"/>
       <c r="C203" s="23"/>
@@ -5798,7 +5219,7 @@
       <c r="O203" s="24"/>
       <c r="S203" s="24"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="23"/>
       <c r="B204" s="24"/>
       <c r="C204" s="23"/>
@@ -5816,7 +5237,7 @@
       <c r="O204" s="24"/>
       <c r="S204" s="24"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="23"/>
       <c r="B205" s="24"/>
       <c r="C205" s="23"/>
@@ -5834,7 +5255,7 @@
       <c r="O205" s="24"/>
       <c r="S205" s="24"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="23"/>
       <c r="B206" s="24"/>
       <c r="C206" s="23"/>
@@ -5852,7 +5273,7 @@
       <c r="O206" s="24"/>
       <c r="S206" s="24"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="23"/>
       <c r="B207" s="24"/>
       <c r="C207" s="23"/>
@@ -5870,7 +5291,7 @@
       <c r="O207" s="24"/>
       <c r="S207" s="24"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="23"/>
       <c r="B208" s="24"/>
       <c r="C208" s="23"/>
@@ -5888,7 +5309,7 @@
       <c r="O208" s="24"/>
       <c r="S208" s="24"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="23"/>
       <c r="B209" s="24"/>
       <c r="C209" s="23"/>
@@ -5906,7 +5327,7 @@
       <c r="O209" s="24"/>
       <c r="S209" s="24"/>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="23"/>
       <c r="B210" s="24"/>
       <c r="C210" s="23"/>
@@ -5924,7 +5345,7 @@
       <c r="O210" s="24"/>
       <c r="S210" s="24"/>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="23"/>
       <c r="B211" s="24"/>
       <c r="C211" s="23"/>
@@ -5942,7 +5363,7 @@
       <c r="O211" s="24"/>
       <c r="S211" s="24"/>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="23"/>
       <c r="B212" s="24"/>
       <c r="C212" s="23"/>
@@ -5960,7 +5381,7 @@
       <c r="O212" s="24"/>
       <c r="S212" s="24"/>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="23"/>
       <c r="B213" s="24"/>
       <c r="C213" s="23"/>
@@ -5978,7 +5399,7 @@
       <c r="O213" s="24"/>
       <c r="S213" s="24"/>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="23"/>
       <c r="B214" s="24"/>
       <c r="C214" s="23"/>
@@ -5996,7 +5417,7 @@
       <c r="O214" s="24"/>
       <c r="S214" s="24"/>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A215" s="23"/>
       <c r="B215" s="24"/>
       <c r="C215" s="23"/>
@@ -6014,7 +5435,7 @@
       <c r="O215" s="24"/>
       <c r="S215" s="24"/>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A216" s="23"/>
       <c r="B216" s="24"/>
       <c r="C216" s="23"/>
@@ -6032,7 +5453,7 @@
       <c r="O216" s="24"/>
       <c r="S216" s="24"/>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A217" s="23"/>
       <c r="B217" s="24"/>
       <c r="C217" s="23"/>
@@ -6050,7 +5471,7 @@
       <c r="O217" s="24"/>
       <c r="S217" s="24"/>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A218" s="23"/>
       <c r="B218" s="24"/>
       <c r="C218" s="23"/>
@@ -6069,22 +5490,21 @@
       <c r="S218" s="24"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -6095,7 +5515,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -6121,7 +5541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6131,7 +5551,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6141,7 +5561,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6151,7 +5571,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6161,7 +5581,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6171,7 +5591,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6181,7 +5601,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6191,7 +5611,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6201,7 +5621,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6211,7 +5631,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6221,7 +5641,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6231,7 +5651,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6241,7 +5661,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6251,7 +5671,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6261,7 +5681,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6271,7 +5691,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6281,7 +5701,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6291,7 +5711,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6302,12 +5722,12 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>